--- a/TestResults/DayOfWeekGet.xlsx
+++ b/TestResults/DayOfWeekGet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="31">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -62,7 +62,7 @@
     <t/>
   </si>
   <si>
-    <t>Success</t>
+    <t>SUCCESS</t>
   </si>
   <si>
     <t>200</t>
@@ -74,66 +74,66 @@
     <t>Total number of records matching between DB &amp; Response: 7, below are the test steps for this test case</t>
   </si>
   <si>
-    <t xml:space="preserve">Response_dayOfweekNumber: 6
-DB_dayOfweekNumber: 6
-Response_dayOfweekFullName: Friday
-DB_dayOfweekFullName: Friday
-Response_dayOfweekShortName: Fri
-DB_dayOfweekShortName: Fri
+    <t xml:space="preserve">Response_dayOfWeekNumber: 7
+DB_dayOfWeekNumber: 7
+Response_dayOfWeekFullName: Test_G
+DB_dayOfWeekFullName: Test_G
+Response_dayOfWeekShortName: Test_G
+DB_dayOfWeekShortName: Test_G
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Response_dayOfweekNumber: 3
-DB_dayOfweekNumber: 3
-Response_dayOfweekFullName: Tuesday
-DB_dayOfweekFullName: Tuesday
-Response_dayOfweekShortName: Tue
-DB_dayOfweekShortName: Tue
+    <t xml:space="preserve">Response_dayOfWeekNumber: 5
+DB_dayOfWeekNumber: 5
+Response_dayOfWeekFullName: Test_E
+DB_dayOfWeekFullName: Test_E
+Response_dayOfWeekShortName: Test_E
+DB_dayOfWeekShortName: Test_E
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Response_dayOfweekNumber: 1
-DB_dayOfweekNumber: 1
-Response_dayOfweekFullName: Sunday
-DB_dayOfweekFullName: Sunday
-Response_dayOfweekShortName: Sun
-DB_dayOfweekShortName: Sun
+    <t xml:space="preserve">Response_dayOfWeekNumber: 2
+DB_dayOfWeekNumber: 2
+Response_dayOfWeekFullName: Test_B
+DB_dayOfWeekFullName: Test_B
+Response_dayOfWeekShortName: Test_B
+DB_dayOfWeekShortName: Test_B
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Response_dayOfweekNumber: 2
-DB_dayOfweekNumber: 2
-Response_dayOfweekFullName: Monday
-DB_dayOfweekFullName: Monday
-Response_dayOfweekShortName: Mon
-DB_dayOfweekShortName: Mon
+    <t xml:space="preserve">Response_dayOfWeekNumber: 4
+DB_dayOfWeekNumber: 4
+Response_dayOfWeekFullName: Test_D
+DB_dayOfWeekFullName: Test_D
+Response_dayOfWeekShortName: Test_D
+DB_dayOfWeekShortName: Test_D
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Response_dayOfweekNumber: 4
-DB_dayOfweekNumber: 4
-Response_dayOfweekFullName: Wednesday
-DB_dayOfweekFullName: Wednesday
-Response_dayOfweekShortName: Wed
-DB_dayOfweekShortName: Wed
+    <t xml:space="preserve">Response_dayOfWeekNumber: 1
+DB_dayOfWeekNumber: 1
+Response_dayOfWeekFullName: Test_A
+DB_dayOfWeekFullName: Test_A
+Response_dayOfWeekShortName: Test_A
+DB_dayOfWeekShortName: Test_A
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Response_dayOfweekNumber: 5
-DB_dayOfweekNumber: 5
-Response_dayOfweekFullName: Thursday
-DB_dayOfweekFullName: Thursday
-Response_dayOfweekShortName: Thu
-DB_dayOfweekShortName: Thu
+    <t xml:space="preserve">Response_dayOfWeekNumber: 3
+DB_dayOfWeekNumber: 3
+Response_dayOfWeekFullName: Test_C
+DB_dayOfWeekFullName: Test_C
+Response_dayOfWeekShortName: Test_C
+DB_dayOfWeekShortName: Test_C
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Response_dayOfweekNumber: 7
-DB_dayOfweekNumber: 7
-Response_dayOfweekFullName: Saturday
-DB_dayOfweekFullName: Saturday
-Response_dayOfweekShortName: Sat
-DB_dayOfweekShortName: Sat
+    <t xml:space="preserve">Response_dayOfWeekNumber: 6
+DB_dayOfWeekNumber: 6
+Response_dayOfWeekFullName: Test_F
+DB_dayOfWeekFullName: Test_F
+Response_dayOfWeekShortName: Test_F
+DB_dayOfWeekShortName: Test_F
 </t>
   </si>
   <si>
@@ -148,11 +148,29 @@
   <si>
     <t xml:space="preserve">
 {
-	"timestamp":"2020-01-22T10:54:07.715+0000",
-	"status":404,
-	"error":"Not Found",
-	"message":"No message available",
-	"path":"/daysOfWee"
+	"meta":
+	{
+		"version":"1.0.0",
+		"transactionId":"d273932d-b087-4d23-aa98-6b5294dbe073",
+		"timeStamp":"2020-06-18T07:50:15.091+0000",
+		"statusCode":"404",
+		"message":
+		{
+			"status":"ERROR",
+			"internalMessage":"Exception",
+			"data":
+			{
+				"errorMessage":"Request Submitted With Error"
+			}
+		}
+	},
+	"errors":
+	[
+		{
+			"fieldName":"Error",
+			"message":"Could not find the GET method for URL /v2/daysOfWee"
+		}
+	]
 }</t>
   </si>
 </sst>
@@ -1406,9 +1424,7 @@
       <c r="F10" t="s" s="95">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="96">
-        <v>29</v>
-      </c>
+      <c r="G10" s="96"/>
       <c r="H10" t="s" s="97">
         <v>29</v>
       </c>
